--- a/data/trans_dic/P36B08_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Estudios-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumen 3 veces o más al dia verduras, ensaladas y hortalizas</t>
+          <t>Población que consumen 3 veces o más al día verduras, ensaladas y hortalizas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>61,04; 66,92</t>
+          <t>61,32; 66,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>69,71; 75,75</t>
+          <t>69,87; 75,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>73,4; 79,19</t>
+          <t>73,06; 79,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>90,76; 94,9</t>
+          <t>90,17; 94,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>70,53; 75,4</t>
+          <t>70,4; 75,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78,36; 82,81</t>
+          <t>78,39; 82,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>76,64; 82,05</t>
+          <t>76,3; 81,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>93,4; 95,84</t>
+          <t>93,33; 95,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>67,28; 70,8</t>
+          <t>66,98; 70,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>75,4; 79,22</t>
+          <t>75,59; 79,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>75,91; 79,94</t>
+          <t>75,99; 80,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,84; 95,2</t>
+          <t>92,78; 95,03</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,24; 64,25</t>
+          <t>59,3; 64,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,07; 71,3</t>
+          <t>67,1; 71,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67,02; 71,2</t>
+          <t>67,08; 71,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>92,35; 94,94</t>
+          <t>92,34; 95,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>67,35; 72,0</t>
+          <t>67,38; 71,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>75,37; 79,29</t>
+          <t>75,34; 79,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>73,13; 76,99</t>
+          <t>73,18; 77,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>95,04; 96,9</t>
+          <t>94,97; 96,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63,93; 67,31</t>
+          <t>63,86; 67,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>71,48; 74,56</t>
+          <t>71,44; 74,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>70,6; 73,56</t>
+          <t>70,6; 73,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>93,93; 95,63</t>
+          <t>93,95; 95,63</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>61,84; 70,29</t>
+          <t>61,98; 70,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>71,33; 79,19</t>
+          <t>71,13; 79,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>73,57; 81,46</t>
+          <t>74,64; 81,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>95,27; 98,03</t>
+          <t>95,32; 98,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>66,36; 74,54</t>
+          <t>66,62; 74,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,4; 88,3</t>
+          <t>81,16; 88,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>78,36; 84,95</t>
+          <t>78,67; 85,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>94,76; 97,76</t>
+          <t>94,81; 97,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>65,59; 71,38</t>
+          <t>65,31; 71,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>77,13; 82,47</t>
+          <t>77,29; 82,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>77,48; 82,42</t>
+          <t>77,55; 82,65</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>95,56; 97,64</t>
+          <t>95,56; 97,71</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,68; 64,9</t>
+          <t>61,51; 64,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>69,4; 72,63</t>
+          <t>69,63; 72,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,71; 73,87</t>
+          <t>70,73; 73,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93,31; 95,23</t>
+          <t>93,29; 95,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>69,41; 72,57</t>
+          <t>69,61; 72,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,22; 80,92</t>
+          <t>78,16; 81,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>75,99; 78,77</t>
+          <t>75,85; 78,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,12; 96,51</t>
+          <t>95,02; 96,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>65,9; 68,27</t>
+          <t>66,06; 68,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>74,37; 76,6</t>
+          <t>74,4; 76,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>73,72; 75,93</t>
+          <t>73,87; 75,96</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,51; 95,69</t>
+          <t>94,45; 95,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B08_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>61,32; 66,97</t>
+          <t>61,24; 67,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>69,87; 75,88</t>
+          <t>70,09; 75,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>73,06; 79,32</t>
+          <t>73,36; 79,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>70,4; 75,35</t>
+          <t>70,5; 75,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78,39; 82,8</t>
+          <t>78,29; 82,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>76,3; 81,87</t>
+          <t>76,91; 81,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>66,98; 70,8</t>
+          <t>67,14; 70,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>75,59; 79,2</t>
+          <t>75,45; 79,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>75,99; 80,07</t>
+          <t>76,04; 79,98</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,3; 64,12</t>
+          <t>59,39; 63,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,1; 71,33</t>
+          <t>67,09; 71,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67,08; 71,38</t>
+          <t>67,23; 71,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>67,38; 71,87</t>
+          <t>67,23; 71,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>75,34; 79,36</t>
+          <t>75,13; 79,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>73,18; 77,08</t>
+          <t>73,07; 76,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63,86; 67,05</t>
+          <t>63,72; 67,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>71,44; 74,51</t>
+          <t>71,39; 74,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>70,6; 73,57</t>
+          <t>70,77; 73,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>61,98; 70,31</t>
+          <t>61,38; 70,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>71,13; 79,5</t>
+          <t>70,85; 79,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74,64; 81,68</t>
+          <t>74,49; 81,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>66,62; 74,56</t>
+          <t>66,59; 75,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,16; 88,38</t>
+          <t>80,98; 88,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>78,67; 85,0</t>
+          <t>78,52; 84,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>65,31; 71,1</t>
+          <t>65,46; 71,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>77,29; 82,84</t>
+          <t>77,14; 82,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>77,55; 82,65</t>
+          <t>77,58; 82,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,51; 64,82</t>
+          <t>61,57; 64,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>69,63; 72,83</t>
+          <t>69,6; 72,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,73; 73,89</t>
+          <t>70,62; 73,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>69,61; 72,58</t>
+          <t>69,46; 72,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,16; 81,05</t>
+          <t>78,13; 81,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>75,85; 78,8</t>
+          <t>76,0; 78,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66,06; 68,31</t>
+          <t>66,1; 68,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>74,4; 76,53</t>
+          <t>74,38; 76,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>73,87; 75,96</t>
+          <t>73,86; 75,82</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P36B08_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>61,24; 67,23</t>
+          <t>61,04; 66,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70,09; 75,86</t>
+          <t>69,71; 75,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>73,36; 79,45</t>
+          <t>73,4; 79,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>90,17; 94,75</t>
+          <t>90,76; 94,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>70,5; 75,2</t>
+          <t>70,53; 75,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78,29; 82,71</t>
+          <t>78,36; 82,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>76,91; 81,81</t>
+          <t>76,64; 82,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>93,33; 95,84</t>
+          <t>93,4; 95,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>67,14; 70,93</t>
+          <t>67,28; 70,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>75,45; 79,18</t>
+          <t>75,4; 79,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>76,04; 79,98</t>
+          <t>75,91; 79,94</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,78; 95,03</t>
+          <t>92,84; 95,2</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,39; 63,93</t>
+          <t>59,24; 64,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,09; 71,38</t>
+          <t>67,07; 71,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67,23; 71,2</t>
+          <t>67,02; 71,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>92,34; 95,14</t>
+          <t>92,35; 94,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>67,23; 71,94</t>
+          <t>67,35; 72,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>75,13; 79,38</t>
+          <t>75,37; 79,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>73,07; 76,88</t>
+          <t>73,13; 76,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>94,97; 96,88</t>
+          <t>95,04; 96,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63,72; 67,06</t>
+          <t>63,93; 67,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>71,39; 74,53</t>
+          <t>71,48; 74,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>70,77; 73,44</t>
+          <t>70,6; 73,56</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>93,95; 95,63</t>
+          <t>93,93; 95,63</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>61,38; 70,05</t>
+          <t>61,84; 70,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>70,85; 79,39</t>
+          <t>71,33; 79,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74,49; 81,68</t>
+          <t>73,57; 81,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>95,32; 98,12</t>
+          <t>95,27; 98,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>66,59; 75,13</t>
+          <t>66,36; 74,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>80,98; 88,2</t>
+          <t>81,4; 88,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>78,52; 84,95</t>
+          <t>78,36; 84,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>94,81; 97,9</t>
+          <t>94,76; 97,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>65,46; 71,48</t>
+          <t>65,59; 71,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>77,14; 82,75</t>
+          <t>77,13; 82,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>77,58; 82,46</t>
+          <t>77,48; 82,42</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>95,56; 97,71</t>
+          <t>95,56; 97,64</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,57; 64,86</t>
+          <t>61,68; 64,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>69,6; 72,76</t>
+          <t>69,4; 72,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,62; 73,83</t>
+          <t>70,71; 73,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93,29; 95,11</t>
+          <t>93,31; 95,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>69,46; 72,57</t>
+          <t>69,41; 72,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,13; 81,09</t>
+          <t>78,22; 80,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>76,0; 78,93</t>
+          <t>75,99; 78,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,02; 96,4</t>
+          <t>95,12; 96,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66,1; 68,36</t>
+          <t>65,9; 68,27</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>74,38; 76,53</t>
+          <t>74,37; 76,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>73,86; 75,82</t>
+          <t>73,72; 75,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,45; 95,64</t>
+          <t>94,51; 95,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B08_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>92,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>94,66%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>93,98%</t>
+          <t>93,86%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>90,76; 94,9</t>
+          <t>90,57; 94,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>93,4; 95,84</t>
+          <t>93,22; 95,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,84; 95,2</t>
+          <t>92,7; 95,12</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>93,79%</t>
+          <t>94,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>96,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>95,13%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>92,35; 94,94</t>
+          <t>92,4; 95,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>95,04; 96,9</t>
+          <t>95,12; 97,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>93,93; 95,63</t>
+          <t>94,05; 96,15</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>96,97%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>96,74%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>95,27; 98,03</t>
+          <t>95,14; 98,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>94,76; 97,76</t>
+          <t>94,76; 97,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>95,56; 97,64</t>
+          <t>95,48; 97,62</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>94,29%</t>
+          <t>94,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>95,81%</t>
+          <t>95,92%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>95,2%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93,31; 95,23</t>
+          <t>93,33; 95,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,12; 96,51</t>
+          <t>95,16; 96,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,51; 95,69</t>
+          <t>94,51; 95,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B08_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>61,04; 66,92</t>
+          <t>60,96; 67,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>69,71; 75,75</t>
+          <t>70,03; 75,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>73,4; 79,19</t>
+          <t>73,03; 79,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>90,57; 94,8</t>
+          <t>90,23; 94,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>70,53; 75,4</t>
+          <t>70,12; 75,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78,36; 82,81</t>
+          <t>78,28; 82,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>76,64; 82,05</t>
+          <t>76,3; 81,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>93,22; 95,73</t>
+          <t>93,24; 95,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>67,28; 70,8</t>
+          <t>67,25; 70,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>75,4; 79,22</t>
+          <t>75,61; 79,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>75,91; 79,94</t>
+          <t>75,82; 80,09</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,7; 95,12</t>
+          <t>92,63; 94,94</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,24; 64,25</t>
+          <t>59,03; 63,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,07; 71,3</t>
+          <t>67,29; 71,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67,02; 71,2</t>
+          <t>67,12; 71,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>92,4; 95,9</t>
+          <t>92,53; 96,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>67,35; 72,0</t>
+          <t>67,22; 71,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>75,37; 79,29</t>
+          <t>75,05; 79,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>73,13; 76,99</t>
+          <t>73,01; 77,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>95,12; 97,33</t>
+          <t>94,89; 97,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63,93; 67,31</t>
+          <t>63,83; 67,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>71,48; 74,56</t>
+          <t>71,59; 74,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>70,6; 73,56</t>
+          <t>70,65; 73,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>94,05; 96,15</t>
+          <t>94,25; 96,22</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>61,84; 70,29</t>
+          <t>62,09; 70,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>71,33; 79,19</t>
+          <t>70,94; 79,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>73,57; 81,46</t>
+          <t>74,23; 81,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>95,14; 98,0</t>
+          <t>95,3; 98,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>66,36; 74,54</t>
+          <t>66,79; 75,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,4; 88,3</t>
+          <t>81,39; 88,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>78,36; 84,95</t>
+          <t>78,42; 84,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>94,76; 97,75</t>
+          <t>94,57; 97,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>65,59; 71,38</t>
+          <t>65,06; 71,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>77,13; 82,47</t>
+          <t>77,17; 82,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>77,48; 82,42</t>
+          <t>77,7; 82,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>95,48; 97,62</t>
+          <t>95,48; 97,67</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,68; 64,9</t>
+          <t>61,67; 64,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>69,4; 72,63</t>
+          <t>69,55; 72,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,71; 73,87</t>
+          <t>70,73; 73,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93,33; 95,76</t>
+          <t>93,32; 95,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>69,41; 72,57</t>
+          <t>69,51; 72,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,22; 80,92</t>
+          <t>78,11; 80,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>75,99; 78,77</t>
+          <t>75,98; 78,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,16; 96,78</t>
+          <t>95,2; 96,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>65,9; 68,27</t>
+          <t>66,12; 68,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>74,37; 76,6</t>
+          <t>74,28; 76,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>73,72; 75,93</t>
+          <t>73,8; 75,96</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,51; 95,98</t>
+          <t>94,53; 95,91</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consumen 3 veces o más al día verduras, ensaladas y hortalizas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>942</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>705</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1352</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1616</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1662</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>661709</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>708260</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>575138</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>477259</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>958323</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1078767</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>785900</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>712521</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1620031</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1787026</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1361038</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1189780</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>628436; 693261</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>679643; 733341</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>549464; 596634</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>463973; 487405</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>922185; 986903</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1047239; 1107772</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>755496; 809445</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>702528; 721538</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1577702; 1663292</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1745239; 1827224</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1321166; 1395646</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1174213; 1203485</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1276</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1348</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1881</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1257</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1415</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2817</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2082</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2533</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2763</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4698</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1044188</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1358817</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1428243</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2152873</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1105500</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1352919</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1485319</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2150753</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2149688</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2711736</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2913563</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4303625</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>999664; 1081149</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1320254; 1400406</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1384865; 1473272</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2116949; 2196669</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1066465; 1140260</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1313245; 1386822</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1444130; 1523038</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2121803; 2174456</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2093634; 2208875</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2657220; 2764673</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2855191; 2973609</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4263673; 4352653</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>818</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1638</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>365235</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>362101</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>426700</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>626623</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>337748</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>388218</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>448114</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>637879</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>702983</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>750319</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>874814</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1264502</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>342346; 388558</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>340613; 380385</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>404471; 445218</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>616257; 634739</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>318215; 358061</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>371687; 403114</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>429107; 464027</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>624613; 645976</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>668726; 732811</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>722952; 776907</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>848482; 902150</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1248064; 1276631</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2258</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2323</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3189</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2332</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2611</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2546</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4869</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4869</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8337</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2071131</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2429178</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2430082</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3256754</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2401570</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2819903</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2719334</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3501153</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4472702</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>5249082</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5149416</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>6757907</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2020001; 2127929</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2373463; 2490688</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2376741; 2482780</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3218193; 3306299</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2348146; 2448706</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2768361; 2867034</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2670786; 2770685</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3474608; 3530916</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>4399546; 4548708</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5167821; 5318748</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5074187; 5222830</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>6710401; 6808162</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>